--- a/data/trans_camb/P1805_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1805_2016_2023-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.464386128965604</v>
+        <v>-5.740084236431767</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.64893496972269</v>
+        <v>-8.411193135709691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.906269272618257</v>
+        <v>-5.884055369070236</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2518814202109466</v>
+        <v>-0.2587783472838658</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.320447315654809</v>
+        <v>-1.761379936137419</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.661220201542115</v>
+        <v>-1.676192895406204</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9495914303149813</v>
+        <v>-0.9426913836112575</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8210902936046252</v>
+        <v>-0.8150892273935868</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8228620384229548</v>
+        <v>-0.8283966484558809</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1588300485432395</v>
+        <v>0.1910476901386663</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2138923805568977</v>
+        <v>-0.3077155084595939</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3902248452963208</v>
+        <v>-0.3881578978769739</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.539171643996406</v>
+        <v>1.613881868737372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9829000431765619</v>
+        <v>1.011555088383575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.743666219222009</v>
+        <v>1.730858181501177</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.045013122256912</v>
+        <v>6.089880984077675</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.699260339337816</v>
+        <v>4.759074726191685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.545370089756466</v>
+        <v>4.605067431989831</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.8000432591479875</v>
+        <v>0.8379550029317909</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3055156229650726</v>
+        <v>0.4212316663530107</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.228193194748236</v>
+        <v>1.156167551773087</v>
       </c>
     </row>
     <row r="15">
@@ -756,10 +756,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>7.665717650781065</v>
+        <v>8.660575545963603</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10.36120900111825</v>
+        <v>10.70827048219488</v>
       </c>
     </row>
     <row r="16">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6506989906588386</v>
+        <v>-0.5402512314187302</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.608303605728465</v>
+        <v>-2.511835331909627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7598758118912393</v>
+        <v>-0.8283722259905226</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.979040959342886</v>
+        <v>4.542087894945009</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.795621058944518</v>
+        <v>3.743202045031827</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.264500875353665</v>
+        <v>3.440534350164477</v>
       </c>
     </row>
     <row r="19">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3644716889239876</v>
+        <v>-0.4156621579755835</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3893008288841149</v>
+        <v>-0.4136104580224846</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1942104684094299</v>
+        <v>-0.1897033796187945</v>
       </c>
     </row>
     <row r="21">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.990059438031743</v>
+        <v>5.639095113747048</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.454859084162738</v>
+        <v>1.425340609261391</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.535856056294711</v>
+        <v>1.70414862436765</v>
       </c>
     </row>
     <row r="22">
@@ -880,10 +880,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>3.27233141312866</v>
+        <v>3.272331413128662</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.583848949950064</v>
+        <v>2.583848949950065</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.921407957254742</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3518396792813245</v>
+        <v>0.09025512465999153</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2258505120524573</v>
+        <v>-0.08237611896688685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.735572341768929</v>
+        <v>0.74993333457412</v>
       </c>
     </row>
     <row r="24">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.072588614602784</v>
+        <v>7.355198553593405</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.428656870439375</v>
+        <v>5.48300025020214</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.203839852669948</v>
+        <v>5.48075790381036</v>
       </c>
     </row>
     <row r="25">
@@ -934,7 +934,7 @@
         <v>1.311027776393127</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.7959333249406616</v>
+        <v>0.7959333249406623</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>1.014469651621428</v>
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.005726211076469839</v>
+        <v>-0.08664539616787112</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1272277531424998</v>
+        <v>-0.07044511324695117</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1042577158228839</v>
+        <v>0.1672312144063351</v>
       </c>
     </row>
     <row r="27">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.397138192124523</v>
+        <v>4.808440086418331</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.478460926943939</v>
+        <v>3.347570242314605</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.480396611807909</v>
+        <v>2.639900405471411</v>
       </c>
     </row>
     <row r="28">
@@ -989,7 +989,7 @@
         <v>-2.314920409641267</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.2272093736226678</v>
+        <v>-0.2272093736226681</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-1.240780566636394</v>
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.351911095780941</v>
+        <v>-5.9927853941186</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.356597641457919</v>
+        <v>-2.566065940045128</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.210299981197697</v>
+        <v>-3.334259603224479</v>
       </c>
     </row>
     <row r="30">
@@ -1020,13 +1020,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1595012027014659</v>
+        <v>-0.2363404167231363</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.368910130731463</v>
+        <v>1.397407299764218</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1711926023107216</v>
+        <v>0.03859500353147841</v>
       </c>
     </row>
     <row r="31">
@@ -1040,7 +1040,7 @@
         <v>-0.7620818469113514</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.132926299881087</v>
+        <v>-0.1329262998810871</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.5252925724065604</v>
@@ -1057,10 +1057,10 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7774026913214042</v>
+        <v>-0.7756776625773505</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8300589669342784</v>
+        <v>-0.8327207844130323</v>
       </c>
     </row>
     <row r="33">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6200406176491816</v>
+        <v>0.5729132734308083</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.683107708992793</v>
+        <v>2.770588870446253</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1238913896643512</v>
+        <v>0.1687146049085719</v>
       </c>
     </row>
     <row r="34">
@@ -1095,7 +1095,7 @@
         <v>1.365665844284633</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.3661483397257831</v>
+        <v>-0.3661483397257852</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0.4676586925924525</v>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.440147556783695</v>
+        <v>-0.5486424478113355</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.221945225407715</v>
+        <v>-3.398403389227878</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.294735152737009</v>
+        <v>-1.339255204975808</v>
       </c>
     </row>
     <row r="36">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.407897624086066</v>
+        <v>3.391237186106001</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.479645087142517</v>
+        <v>2.323346982284457</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.102275628767721</v>
+        <v>2.325160422455112</v>
       </c>
     </row>
     <row r="37">
@@ -1146,7 +1146,7 @@
         <v>1.20948031111156</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.09461663034427598</v>
+        <v>-0.0946166303442765</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.185210909006562</v>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4044657896931427</v>
+        <v>-0.4943122376587266</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5750631499788537</v>
+        <v>-0.6076925016343792</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3809947082714163</v>
+        <v>-0.3901477797257169</v>
       </c>
     </row>
     <row r="39">
@@ -1176,12 +1176,14 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr"/>
+      <c r="C39" s="6" t="n">
+        <v>10.41419904919345</v>
+      </c>
       <c r="D39" s="6" t="n">
-        <v>1.126413122795672</v>
+        <v>1.15425422759342</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.341160720615729</v>
+        <v>1.545259408281731</v>
       </c>
     </row>
     <row r="40">
@@ -1202,7 +1204,7 @@
         <v>3.048105691153592</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.404692536460837</v>
+        <v>3.404692536460836</v>
       </c>
     </row>
     <row r="41">
@@ -1213,13 +1215,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.797800101254555</v>
+        <v>1.883748426129683</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.6522869909361309</v>
+        <v>0.9540045958169744</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.991499809056319</v>
+        <v>1.781794287856949</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1232,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.499465272237178</v>
+        <v>6.319373575337894</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.304125510415366</v>
+        <v>5.547043388218663</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.184939544823107</v>
+        <v>5.003070552972594</v>
       </c>
     </row>
     <row r="43">
@@ -1264,13 +1266,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.8721970637749353</v>
+        <v>0.8850121662974745</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1159876398338256</v>
+        <v>0.1918581007496624</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6643331108960148</v>
+        <v>0.5451994801881077</v>
       </c>
     </row>
     <row r="45">
@@ -1281,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>11.79328710095571</v>
+        <v>12.32554604785456</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.124258294768234</v>
+        <v>2.340302238023077</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.19725147363574</v>
+        <v>3.015470955560954</v>
       </c>
     </row>
     <row r="46">
@@ -1308,7 +1310,7 @@
         <v>-2.06622138739413</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.9883451066923045</v>
+        <v>-0.9883451066923052</v>
       </c>
     </row>
     <row r="47">
@@ -1319,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.426159221140612</v>
+        <v>-1.453715641009068</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.057784875025748</v>
+        <v>-4.212776827143835</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.334294425972323</v>
+        <v>-2.285157703344994</v>
       </c>
     </row>
     <row r="48">
@@ -1336,13 +1338,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.625181340469949</v>
+        <v>1.687782392394683</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.2333754831229021</v>
+        <v>-0.2477198345930017</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.2117233001253211</v>
+        <v>0.1004522274461036</v>
       </c>
     </row>
     <row r="49">
@@ -1359,7 +1361,7 @@
         <v>-0.4448720392186028</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2815669282796924</v>
+        <v>-0.2815669282796925</v>
       </c>
     </row>
     <row r="50">
@@ -1370,13 +1372,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4824020918399554</v>
+        <v>-0.5097843550190819</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6636312992845994</v>
+        <v>-0.6781096288019507</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.526788071133694</v>
+        <v>-0.537110729015185</v>
       </c>
     </row>
     <row r="51">
@@ -1387,13 +1389,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.015032662873642</v>
+        <v>0.9968704620883744</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.02713654545800389</v>
+        <v>-0.04080258417566952</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1074323266950265</v>
+        <v>0.05421720861092687</v>
       </c>
     </row>
     <row r="52">
@@ -1411,7 +1413,7 @@
         <v>1.517566618254029</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.5157012408370409</v>
+        <v>0.5157012408370403</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>1.008490763548013</v>
@@ -1425,13 +1427,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.6347391708265527</v>
+        <v>0.7285146142061286</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.4047806697749067</v>
+        <v>-0.3231442115391571</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.3597619760336012</v>
+        <v>0.3175531219497087</v>
       </c>
     </row>
     <row r="54">
@@ -1442,13 +1444,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.417701726965138</v>
+        <v>2.405364940099407</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.354869952745645</v>
+        <v>1.424775091194098</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.656962688019791</v>
+        <v>1.583209338103273</v>
       </c>
     </row>
     <row r="55">
@@ -1462,7 +1464,7 @@
         <v>0.8435793032639817</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.1396017032914884</v>
+        <v>0.1396017032914882</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.3644661337819515</v>
@@ -1476,13 +1478,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2709902370488516</v>
+        <v>0.3470860500290565</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.09606228478765068</v>
+        <v>-0.0820704599263422</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.1163419655835749</v>
+        <v>0.1001271226924576</v>
       </c>
     </row>
     <row r="57">
@@ -1493,13 +1495,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.585779851178696</v>
+        <v>1.615614529007066</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4122381365592078</v>
+        <v>0.4424478199690148</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6757303614028838</v>
+        <v>0.6231168856276331</v>
       </c>
     </row>
     <row r="58">
